--- a/NFTS_SP/Arquivos/c_Prestadores.xlsx
+++ b/NFTS_SP/Arquivos/c_Prestadores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Projetos\NFTS_SP\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D50C2E-BFB0-46C6-841D-EED9983EC55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DC76FE-DDE9-45C3-AB30-75C49D552D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1185" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consulta" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="2327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="2338">
   <si>
     <t>23863463000182</t>
   </si>
@@ -7004,6 +7004,39 @@
   </si>
   <si>
     <t>BSTUCHI@AKTIENOW.COM</t>
+  </si>
+  <si>
+    <t>27133918000165</t>
+  </si>
+  <si>
+    <t>REPORTEI DADOS, TECNOLOGIA E SOLUCOES PARA INTERNET LTDA</t>
+  </si>
+  <si>
+    <t>36.033-340</t>
+  </si>
+  <si>
+    <t>R FRANCISCO VAZ DE MAGALHAES</t>
+  </si>
+  <si>
+    <t>CASCATINHA</t>
+  </si>
+  <si>
+    <t>contato@reportei.com</t>
+  </si>
+  <si>
+    <t>03257026000108</t>
+  </si>
+  <si>
+    <t>VIW TECNOLOGIA E SEGURANCA LTDA</t>
+  </si>
+  <si>
+    <t>06.541-038</t>
+  </si>
+  <si>
+    <t>AV YOJIRO TAKAOKA</t>
+  </si>
+  <si>
+    <t>CONTATO@VIWSEC.COM.BR</t>
   </si>
 </sst>
 </file>
@@ -7900,8 +7933,8 @@
   <dimension ref="A1:K362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K337" sqref="K337"/>
+      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B332" sqref="B332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -19363,7 +19396,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="11" t="s">
         <v>2323</v>
       </c>
@@ -19394,35 +19427,79 @@
       <c r="J330" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K330" s="12" t="s">
+      <c r="K330" s="10" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A331"/>
-      <c r="B331"/>
-      <c r="C331"/>
-      <c r="D331"/>
-      <c r="E331"/>
-      <c r="F331"/>
-      <c r="G331"/>
-      <c r="H331"/>
-      <c r="I331"/>
-      <c r="J331"/>
-      <c r="K331"/>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A331" s="3" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>2329</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>2330</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>2331</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I331" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="J331" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K331" s="3" t="s">
+        <v>2332</v>
+      </c>
     </row>
     <row r="332" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A332"/>
-      <c r="B332"/>
-      <c r="C332"/>
-      <c r="D332"/>
-      <c r="E332"/>
-      <c r="F332"/>
-      <c r="G332"/>
-      <c r="H332"/>
-      <c r="I332"/>
-      <c r="J332"/>
-      <c r="K332"/>
+      <c r="A332" s="11" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>2335</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F332" s="3">
+        <v>4384</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="I332" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="J332" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K332" s="12" t="s">
+        <v>2337</v>
+      </c>
     </row>
     <row r="333" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A333"/>
@@ -19593,70 +19670,20 @@
       <c r="J345"/>
       <c r="K345"/>
     </row>
-    <row r="346" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A346"/>
-      <c r="B346"/>
-      <c r="C346"/>
-      <c r="D346"/>
-      <c r="E346"/>
-      <c r="F346"/>
-      <c r="G346"/>
-      <c r="H346"/>
-      <c r="I346"/>
-      <c r="J346"/>
-      <c r="K346"/>
-    </row>
-    <row r="347" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A347"/>
-      <c r="B347"/>
-      <c r="C347"/>
-      <c r="D347"/>
-      <c r="E347"/>
-      <c r="F347"/>
-      <c r="G347"/>
-      <c r="H347"/>
-      <c r="I347"/>
-      <c r="J347"/>
-      <c r="K347"/>
-    </row>
-    <row r="348" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A348"/>
-      <c r="B348"/>
-      <c r="C348"/>
-      <c r="D348"/>
-      <c r="E348"/>
-      <c r="F348"/>
-      <c r="G348"/>
-      <c r="H348"/>
-      <c r="I348"/>
-      <c r="J348"/>
-      <c r="K348"/>
-    </row>
-    <row r="349" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A349"/>
-      <c r="B349"/>
-      <c r="C349"/>
-      <c r="D349"/>
-      <c r="E349"/>
-      <c r="F349"/>
-      <c r="G349"/>
-      <c r="H349"/>
-      <c r="I349"/>
-      <c r="J349"/>
-      <c r="K349"/>
-    </row>
-    <row r="350" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A350"/>
-      <c r="B350"/>
-      <c r="C350"/>
-      <c r="D350"/>
-      <c r="E350"/>
-      <c r="F350"/>
-      <c r="G350"/>
-      <c r="H350"/>
-      <c r="I350"/>
-      <c r="J350"/>
-      <c r="K350"/>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F346" s="3"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F347" s="3"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F348" s="3"/>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F349" s="3"/>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F350" s="3"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F351" s="3"/>
@@ -19664,36 +19691,16 @@
     <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F352" s="3"/>
     </row>
-    <row r="353" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F353" s="3"/>
-    </row>
-    <row r="354" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F354" s="3"/>
-    </row>
-    <row r="355" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F355" s="3"/>
-    </row>
-    <row r="356" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F356" s="3"/>
-    </row>
-    <row r="357" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F357" s="3"/>
-    </row>
-    <row r="358" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F358" s="3"/>
-    </row>
-    <row r="359" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F359" s="3"/>
-    </row>
-    <row r="360" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F360" s="3"/>
-    </row>
-    <row r="361" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F361" s="3"/>
-    </row>
-    <row r="362" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F362" s="3"/>
-    </row>
+    <row r="353" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K290" r:id="rId1" xr:uid="{F1F4335C-6153-4C66-A63F-659982739474}"/>
@@ -19702,8 +19709,9 @@
     <hyperlink ref="K312" r:id="rId4" xr:uid="{25298EEB-2D41-419A-BD57-3689E683A5B0}"/>
     <hyperlink ref="K313" r:id="rId5" xr:uid="{2FC18794-81E2-40BB-9DD9-67506E6B476D}"/>
     <hyperlink ref="K330" r:id="rId6" xr:uid="{87CC6223-219F-4C3F-A2DD-288152C91BF1}"/>
+    <hyperlink ref="K332" r:id="rId7" xr:uid="{0D8D16F5-BE8F-42B6-9662-2BB00C93417C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>